--- a/data/trans_dic/P34D_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P34D_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,88; 8,1</t>
+          <t>3,92; 7,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,43</t>
+          <t>0,69; 5,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,3</t>
+          <t>2,3; 5,65</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,0; 22,76</t>
+          <t>18,17; 22,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,11; 7,73</t>
+          <t>5,16; 7,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,83; 14,67</t>
+          <t>12,0; 14,84</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,67; 29,51</t>
+          <t>21,81; 29,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,63; 15,52</t>
+          <t>10,89; 15,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,59; 21,14</t>
+          <t>17,04; 21,5</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,38; 20,87</t>
+          <t>17,31; 20,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 7,69</t>
+          <t>5,62; 7,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,38; 13,51</t>
+          <t>11,36; 13,4</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P34D_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P34D_2023-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,24%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,92; 7,84</t>
+          <t>3,88; 7,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 5,48</t>
+          <t>0,71; 4,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,65</t>
+          <t>2,31; 4,91</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>19,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>12,61%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,17; 22,88</t>
+          <t>14,0; 22,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,16; 7,68</t>
+          <t>4,22; 7,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,0; 14,84</t>
+          <t>10,45; 14,54</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>25,36%</t>
+          <t>25,42%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>19,18%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,81; 29,32</t>
+          <t>21,76; 29,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,89; 15,8</t>
+          <t>10,95; 15,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,04; 21,5</t>
+          <t>17,18; 21,74</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>12,15%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,31; 20,71</t>
+          <t>14,09; 20,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 7,8</t>
+          <t>5,11; 7,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,36; 13,4</t>
+          <t>10,41; 13,42</t>
         </is>
       </c>
     </row>
